--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_7.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_7.xlsx
@@ -508,295 +508,295 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_5</t>
+          <t>model_1_7_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.99061086601828</v>
+        <v>0.9435351861287787</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8107606293143179</v>
+        <v>0.7037685232498951</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7862972534898169</v>
+        <v>0.7732503433301964</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9793336081746435</v>
+        <v>0.8772269902254991</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0390825208590489</v>
+        <v>0.1812682686272679</v>
       </c>
       <c r="G2" t="n">
-        <v>1.265444543142335</v>
+        <v>1.980901249048479</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7644023330697285</v>
+        <v>0.8110703742073742</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06356542777006251</v>
+        <v>0.2426109629674178</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3400668731005903</v>
+        <v>1.169152974591291</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1976929964845718</v>
+        <v>0.4257561140221805</v>
       </c>
       <c r="L2" t="n">
-        <v>1.600904574830082</v>
+        <v>0.9231117428136562</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2008064635587092</v>
+        <v>0.4324613472180576</v>
       </c>
       <c r="N2" t="n">
-        <v>136.4841598975891</v>
+        <v>37.41555439580053</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8193324408055</v>
+        <v>74.38013798402635</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_4</t>
+          <t>model_1_7_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9904788350989561</v>
+        <v>0.9434666668149984</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8106481902836011</v>
+        <v>0.7036886200111925</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7864263673470184</v>
+        <v>0.7731740731261284</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9791571645143068</v>
+        <v>0.8774161901757404</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03963210308554185</v>
+        <v>0.1814882353025291</v>
       </c>
       <c r="G3" t="n">
-        <v>1.266196423458473</v>
+        <v>1.981435562373604</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7639405002889703</v>
+        <v>0.8113431883049247</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06410813095895995</v>
+        <v>0.2422370861503085</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3421093812174504</v>
+        <v>1.170073019078448</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1990781331174819</v>
+        <v>0.4260143604416747</v>
       </c>
       <c r="L3" t="n">
-        <v>1.609354553666812</v>
+        <v>0.9230184399182957</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2022134147089591</v>
+        <v>0.4327236607605072</v>
       </c>
       <c r="N3" t="n">
-        <v>136.4562316103403</v>
+        <v>37.41312889329581</v>
       </c>
       <c r="O3" t="n">
-        <v>277.7914041535567</v>
+        <v>74.37771248152163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_6</t>
+          <t>model_1_7_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9918322255608637</v>
+        <v>0.9433963881297398</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8105142072840962</v>
+        <v>0.7036077278217322</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7821005835032696</v>
+        <v>0.773096089850801</v>
       </c>
       <c r="E4" t="n">
-        <v>0.98030010173944</v>
+        <v>0.877606954710673</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03399857915661268</v>
+        <v>0.1817138500655085</v>
       </c>
       <c r="G4" t="n">
-        <v>1.267092368393097</v>
+        <v>1.981976488817</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7794135782747011</v>
+        <v>0.8116221299590405</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06059269903238691</v>
+        <v>0.2418601175673518</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3037865810833164</v>
+        <v>1.170995372268953</v>
       </c>
       <c r="K4" t="n">
-        <v>0.184387036303024</v>
+        <v>0.426279075331535</v>
       </c>
       <c r="L4" t="n">
-        <v>1.522737564104723</v>
+        <v>0.92292274128305</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1872909478053824</v>
+        <v>0.4329925446452649</v>
       </c>
       <c r="N4" t="n">
-        <v>136.7628730895011</v>
+        <v>37.410644163157</v>
       </c>
       <c r="O4" t="n">
-        <v>278.0980456327176</v>
+        <v>74.37522775138281</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_7</t>
+          <t>model_1_7_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9917454190304378</v>
+        <v>0.9433242992696398</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8103551816572488</v>
+        <v>0.7035258010565757</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7807983668402537</v>
+        <v>0.7730163600664819</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9796659741485551</v>
+        <v>0.8777993218435136</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03435991365697005</v>
+        <v>0.1819452760095918</v>
       </c>
       <c r="G5" t="n">
-        <v>1.268155773492071</v>
+        <v>1.98252433347284</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7840715317714484</v>
+        <v>0.8119073187745519</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06254314069225843</v>
+        <v>0.241479982100872</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3055247685028255</v>
+        <v>1.17192054244761</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1853642728709339</v>
+        <v>0.4265504378260463</v>
       </c>
       <c r="L5" t="n">
-        <v>1.528293182051982</v>
+        <v>0.9228245777288712</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1882835748723588</v>
+        <v>0.4332681808278019</v>
       </c>
       <c r="N5" t="n">
-        <v>136.741729389526</v>
+        <v>37.40809863676999</v>
       </c>
       <c r="O5" t="n">
-        <v>278.0769019327424</v>
+        <v>74.37268222499581</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_9</t>
+          <t>model_1_7_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9918109514469211</v>
+        <v>0.9432503048033705</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8103493538315781</v>
+        <v>0.7034427805007681</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7773763972689054</v>
+        <v>0.772934576103504</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9785887179162721</v>
+        <v>0.8779931176621063</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03408713322385033</v>
+        <v>0.1821828194967487</v>
       </c>
       <c r="G6" t="n">
-        <v>1.268194744189166</v>
+        <v>1.983079492311799</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7963117185109652</v>
+        <v>0.812199855268017</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06585655184799857</v>
+        <v>0.2410970234175736</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2990902234031153</v>
+        <v>1.17284843402952</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1846270110895216</v>
+        <v>0.4268287941279837</v>
       </c>
       <c r="L6" t="n">
-        <v>1.524099107397049</v>
+        <v>0.9227238193067172</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1875347019548806</v>
+        <v>0.4335509209632406</v>
       </c>
       <c r="N6" t="n">
-        <v>136.7576705814227</v>
+        <v>37.40548918670243</v>
       </c>
       <c r="O6" t="n">
-        <v>278.0928431246391</v>
+        <v>74.37007277492826</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_8</t>
+          <t>model_1_7_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9917792087176929</v>
+        <v>0.9431744098778417</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8102739318921197</v>
+        <v>0.7033587497357692</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7800796968901382</v>
+        <v>0.7728508912839973</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9794150076152451</v>
+        <v>0.8781884993076686</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03421926318169298</v>
+        <v>0.1824264640039202</v>
       </c>
       <c r="G7" t="n">
-        <v>1.26869909104561</v>
+        <v>1.983641406424273</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7866421725121338</v>
+        <v>0.812499191015068</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06331506039554401</v>
+        <v>0.2407109309916967</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3044603768795995</v>
+        <v>1.173775299928998</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1849844944358661</v>
+        <v>0.427114111220784</v>
       </c>
       <c r="L7" t="n">
-        <v>1.526130642067656</v>
+        <v>0.9226204730251462</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1878978153065778</v>
+        <v>0.43384073151504</v>
       </c>
       <c r="N7" t="n">
-        <v>136.7499330851063</v>
+        <v>37.40281624825064</v>
       </c>
       <c r="O7" t="n">
-        <v>278.0851056283227</v>
+        <v>74.36739983647647</v>
       </c>
     </row>
     <row r="8">
@@ -806,193 +806,193 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9895523637678298</v>
+        <v>0.9430965657910562</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8088112161768023</v>
+        <v>0.7032735940501302</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7859837454547698</v>
+        <v>0.7727652664708133</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9785869067457305</v>
+        <v>0.878385508045087</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04348856473520477</v>
+        <v>0.182676365878505</v>
       </c>
       <c r="G8" t="n">
-        <v>1.278480277769124</v>
+        <v>1.984210842886247</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7655237331328518</v>
+        <v>0.8128054660070152</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06586212262354649</v>
+        <v>0.2403216232799623</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3623382347982977</v>
+        <v>1.174707308642408</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2085391203952025</v>
+        <v>0.4274065580667955</v>
       </c>
       <c r="L8" t="n">
-        <v>1.66864871885889</v>
+        <v>0.9225144725665446</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2118234030787862</v>
+        <v>0.4341377841065365</v>
       </c>
       <c r="N8" t="n">
-        <v>136.2705145101937</v>
+        <v>37.40007836847369</v>
       </c>
       <c r="O8" t="n">
-        <v>277.6056870534102</v>
+        <v>74.36466195669951</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_0</t>
+          <t>model_1_7_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9869134075149583</v>
+        <v>0.9430166960370423</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8085628993563195</v>
+        <v>0.7031873191285571</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7882802509180677</v>
+        <v>0.7726775778984152</v>
       </c>
       <c r="E9" t="n">
-        <v>0.974234369822642</v>
+        <v>0.8785838984247594</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05447329058955653</v>
+        <v>0.1829327707266429</v>
       </c>
       <c r="G9" t="n">
-        <v>1.280140773491087</v>
+        <v>1.984787763684065</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7573092662496725</v>
+        <v>0.8131191229460074</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07924960088966783</v>
+        <v>0.2399295853137661</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4258464292483051</v>
+        <v>1.175639644761203</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2333951383160252</v>
+        <v>0.4277064071610839</v>
       </c>
       <c r="L9" t="n">
-        <v>1.837541919042671</v>
+        <v>0.9224057137525683</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2370708784349596</v>
+        <v>0.4344423555243209</v>
       </c>
       <c r="N9" t="n">
-        <v>135.8200895567348</v>
+        <v>37.39727313343438</v>
       </c>
       <c r="O9" t="n">
-        <v>277.1552620999512</v>
+        <v>74.3618567216602</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_2</t>
+          <t>model_1_7_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.98860840078505</v>
+        <v>0.9429347842051737</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8080596783560285</v>
+        <v>0.7030999126921365</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7881091360376125</v>
+        <v>0.7725878918233036</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9781728151602791</v>
+        <v>0.8787839436721238</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04741783585184795</v>
+        <v>0.1831957312311576</v>
       </c>
       <c r="G10" t="n">
-        <v>1.283505814637152</v>
+        <v>1.985372250926881</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7579213342552502</v>
+        <v>0.8134399248363845</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0671357803083341</v>
+        <v>0.2395342771740595</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3809209731851759</v>
+        <v>1.17657444248842</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2177563681085996</v>
+        <v>0.4280137044898885</v>
       </c>
       <c r="L10" t="n">
-        <v>1.729062349756802</v>
+        <v>0.9222941742368324</v>
       </c>
       <c r="M10" t="n">
-        <v>0.221185813229802</v>
+        <v>0.4347544924788695</v>
       </c>
       <c r="N10" t="n">
-        <v>136.0975136745277</v>
+        <v>37.39440025630711</v>
       </c>
       <c r="O10" t="n">
-        <v>277.4326862177441</v>
+        <v>74.35898384453293</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_7_1</t>
+          <t>model_1_7_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9883988053152115</v>
+        <v>0.9428507987273484</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8079250161396312</v>
+        <v>0.7030114040263555</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7883794761936993</v>
+        <v>0.7724960098958862</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9778226126453841</v>
+        <v>0.8789856690557643</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04829028259058579</v>
+        <v>0.1834653487347223</v>
       </c>
       <c r="G11" t="n">
-        <v>1.284406301498263</v>
+        <v>1.985964108782503</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7569543431921506</v>
+        <v>0.8137685811631363</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06821292879431913</v>
+        <v>0.2391356489277544</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3837802910181104</v>
+        <v>1.177508601874</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2197505007743686</v>
+        <v>0.4283285523225393</v>
       </c>
       <c r="L11" t="n">
-        <v>1.742476459826463</v>
+        <v>0.9221798110329851</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2232113514916555</v>
+        <v>0.4350742988501523</v>
       </c>
       <c r="N11" t="n">
-        <v>136.0610498543309</v>
+        <v>37.3914589291045</v>
       </c>
       <c r="O11" t="n">
-        <v>277.3962223975473</v>
+        <v>74.35604251733032</v>
       </c>
     </row>
   </sheetData>
